--- a/p1_2.xlsx
+++ b/p1_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCA9F05-1D25-40C3-AF94-AE37A1F73420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27580" yWindow="23040" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27580" yWindow="23040" windowWidth="19200" windowHeight="11170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -41,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,12 +49,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -224,7 +226,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -248,9 +250,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -274,7 +276,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -309,7 +311,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -327,7 +329,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -352,7 +354,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -368,104 +370,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="true"/>
+    <col min="3" max="3" width="12.453125" customWidth="true"/>
+    <col min="4" max="4" width="13.08984375" customWidth="true"/>
+    <col min="5" max="5" width="14.08984375" customWidth="true"/>
+    <col min="2" max="2" width="13.08984375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" s="0">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0">
         <v>20</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0">
         <v>40</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0">
         <v>60</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>-0.20237602721095155</v>
-      </c>
-      <c r="B2">
-        <v>-0.60732155789097164</v>
-      </c>
-      <c r="C2">
-        <v>0.29266509499373294</v>
-      </c>
-      <c r="D2">
-        <v>-0.3114519010824523</v>
-      </c>
-      <c r="E2">
-        <v>-7.8695332640670315E-2</v>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>-0.20296582061058224</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-0.60781791597477852</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.29251178013367618</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-0.31183350075296201</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-0.078977331881312271</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>-0.23041703836747582</v>
-      </c>
-      <c r="B3">
-        <v>-0.65665797502005763</v>
-      </c>
-      <c r="C3">
-        <v>0.3069487156603562</v>
-      </c>
-      <c r="D3">
-        <v>-0.33191839971069459</v>
-      </c>
-      <c r="E3">
-        <v>-8.2552022477328429E-2</v>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.23106573851351736</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-0.65721082220065941</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.30676974976781057</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-0.33233534626742822</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-0.082854117792357115</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>-0.72857031490116508</v>
-      </c>
-      <c r="B4">
-        <v>-0.34480223882646127</v>
-      </c>
-      <c r="C4">
-        <v>0.23037776083661943</v>
-      </c>
-      <c r="D4">
-        <v>-0.54672927948074346</v>
-      </c>
-      <c r="E4">
-        <v>-0.63182189070975348</v>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.72828597872189693</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.34432503455595226</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.22975056943748068</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-0.5468017874623009</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-0.6319240796337674</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>-0.78543979320229929</v>
-      </c>
-      <c r="B5">
-        <v>-0.37837729599988756</v>
-      </c>
-      <c r="C5">
-        <v>0.23966834728781111</v>
-      </c>
-      <c r="D5">
-        <v>-0.58749837501109603</v>
-      </c>
-      <c r="E5">
-        <v>-0.6745063117155724</v>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.78511697795025626</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.37786443998779734</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.23897981090987516</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.58759609985113936</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-0.67462760739842453</v>
       </c>
     </row>
   </sheetData>

--- a/p1_2.xlsx
+++ b/p1_2.xlsx
@@ -405,70 +405,70 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20296582061058224</v>
+        <v>-0.20296582061060647</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.60781791597477852</v>
+        <v>-0.60781791597480994</v>
       </c>
       <c r="C2" s="0">
-        <v>0.29251178013367618</v>
+        <v>0.29251178013364304</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.31183350075296201</v>
+        <v>-0.3118335007529861</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.078977331881312271</v>
+        <v>-0.078977331881319085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.23106573851351736</v>
+        <v>-0.23106573851354895</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.65721082220065941</v>
+        <v>-0.6572108222006936</v>
       </c>
       <c r="C3" s="0">
-        <v>0.30676974976781057</v>
+        <v>0.30676974976777444</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.33233534626742822</v>
+        <v>-0.33233534626745642</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.082854117792357115</v>
+        <v>-0.082854117792364748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.72828597872189693</v>
+        <v>-0.72828597872157341</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.34432503455595226</v>
+        <v>-0.34432503455574515</v>
       </c>
       <c r="C4" s="0">
-        <v>0.22975056943748068</v>
+        <v>0.22975056943756822</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.5468017874623009</v>
+        <v>-0.54680178746227759</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.6319240796337674</v>
+        <v>-0.63192407963377117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.78511697795025626</v>
+        <v>-0.7851169779498941</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.37786443998779734</v>
+        <v>-0.37786443998754871</v>
       </c>
       <c r="C5" s="0">
-        <v>0.23897981090987516</v>
+        <v>0.2389798109099773</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.58759609985113936</v>
+        <v>-0.58759609985111327</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.67462760739842453</v>
+        <v>-0.67462760739842575</v>
       </c>
     </row>
   </sheetData>
